--- a/Assignment 2/Circuit/Revision Interactive Hardware Assignment 2 Circuit Bill of Materials.xlsx
+++ b/Assignment 2/Circuit/Revision Interactive Hardware Assignment 2 Circuit Bill of Materials.xlsx
@@ -148,7 +148,7 @@
     <t>Wires</t>
   </si>
   <si>
-    <t>To connect components and build our vircuits</t>
+    <t>To connect components and build our circuits</t>
   </si>
   <si>
     <r>
